--- a/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabeer G\Documents\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1570873-8E39-46CE-B3F7-A655D08A1A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDD81E8-9644-4BC9-A012-DD97663805C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,16 +24,16 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{A483662C-AE77-4735-A17B-2E0CC5776BF0}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{19D4D951-432D-48E2-9EC0-EBCA6AC6CE5D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{1DE16873-65CE-45B0-B619-6F9A07F9DB53}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{717BDB46-8C7F-42BE-BB16-D4B8498FC26C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{1DE16873-65CE-45B0-B619-6F9A07F9DB53}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{19D4D951-432D-48E2-9EC0-EBCA6AC6CE5D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{A483662C-AE77-4735-A17B-2E0CC5776BF0}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="706">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -2184,6 +2184,9 @@
       </rPr>
       <t xml:space="preserve"> …......................</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">used stack </t>
   </si>
 </sst>
 </file>
@@ -2556,6 +2559,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2565,9 +2571,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2791,7 +2794,7 @@
   <dimension ref="A1:Z919"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2805,11 +2808,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2835,11 +2838,11 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2864,9 +2867,9 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2894,9 +2897,9 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2990,7 +2993,7 @@
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2"/>
@@ -3024,7 +3027,7 @@
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -4207,7 +4210,9 @@
       <c r="C43" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>705</v>
+      </c>
       <c r="E43" s="2" t="s">
         <v>701</v>
       </c>
@@ -4237,7 +4242,7 @@
       <c r="A44" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="39" t="s">
         <v>704</v>
       </c>
       <c r="C44" s="13" t="s">
@@ -30669,21 +30674,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A483662C-AE77-4735-A17B-2E0CC5776BF0}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{1DE16873-65CE-45B0-B619-6F9A07F9DB53}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{AAAE0F3B-9187-4C5B-816D-381A7204DA67}"/>
+      <autoFilter ref="A11:C37" xr:uid="{96E9E5D9-3882-4055-9B4D-AA7AA517FAC7}"/>
+    </customSheetView>
+    <customSheetView guid="{19D4D951-432D-48E2-9EC0-EBCA6AC6CE5D}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{B679A461-7934-4450-8665-17F4139FCDFD}"/>
     </customSheetView>
     <customSheetView guid="{717BDB46-8C7F-42BE-BB16-D4B8498FC26C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{F4200879-DBDD-4FEF-AAD3-6AA5E8B3A64F}"/>
+      <autoFilter ref="A11:D37" xr:uid="{31AEF254-A71B-4AA0-B52A-AE3CF82C5A62}"/>
     </customSheetView>
-    <customSheetView guid="{19D4D951-432D-48E2-9EC0-EBCA6AC6CE5D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A483662C-AE77-4735-A17B-2E0CC5776BF0}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{18081B89-C045-4212-837B-8A2889826647}"/>
-    </customSheetView>
-    <customSheetView guid="{1DE16873-65CE-45B0-B619-6F9A07F9DB53}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{E80750D5-0EF7-4BF0-B9C1-3DCD42113F61}"/>
+      <autoFilter ref="A293:C332" xr:uid="{26411DF2-14FB-416A-9C0E-10ACB96B23EA}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
@@ -31093,28 +31098,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>

--- a/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabeer G\Documents\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDD81E8-9644-4BC9-A012-DD97663805C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BC1130-1DFD-477F-86C4-9EC3F4AFB94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSA in 2.5 Months" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{717BDB46-8C7F-42BE-BB16-D4B8498FC26C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{1DE16873-65CE-45B0-B619-6F9A07F9DB53}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{19D4D951-432D-48E2-9EC0-EBCA6AC6CE5D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{A483662C-AE77-4735-A17B-2E0CC5776BF0}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{19D4D951-432D-48E2-9EC0-EBCA6AC6CE5D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{1DE16873-65CE-45B0-B619-6F9A07F9DB53}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{717BDB46-8C7F-42BE-BB16-D4B8498FC26C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>Ola + Amdocs IQ</t>
-  </si>
-  <si>
-    <t>Longest Substring without Repeating Characters</t>
   </si>
   <si>
     <t>Morgan Stanley + Amazon IQ</t>
@@ -2161,6 +2158,9 @@
   </si>
   <si>
     <t xml:space="preserve">Arrays done </t>
+  </si>
+  <si>
+    <t xml:space="preserve">used stack </t>
   </si>
   <si>
     <r>
@@ -2182,11 +2182,11 @@
         <rFont val="Open Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> …......................</t>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">used stack </t>
+    <t>Longest Substring without Repeating Characters….......</t>
   </si>
 </sst>
 </file>
@@ -2794,7 +2794,7 @@
   <dimension ref="A1:Z919"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="92" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>15</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>17</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>19</v>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>22</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>24</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>25</v>
@@ -4102,7 +4102,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -4176,7 +4176,7 @@
         <v>69</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -4211,10 +4211,10 @@
         <v>71</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -4346,11 +4346,11 @@
       <c r="A47" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -4381,10 +4381,10 @@
         <v>63</v>
       </c>
       <c r="B48" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -4415,10 +4415,10 @@
         <v>63</v>
       </c>
       <c r="B49" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -4449,10 +4449,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -4483,10 +4483,10 @@
         <v>63</v>
       </c>
       <c r="B51" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -4520,7 +4520,7 @@
         <v>27</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -4551,10 +4551,10 @@
         <v>63</v>
       </c>
       <c r="B53" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -4585,10 +4585,10 @@
         <v>63</v>
       </c>
       <c r="B54" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -4619,10 +4619,10 @@
         <v>63</v>
       </c>
       <c r="B55" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>93</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -4653,10 +4653,10 @@
         <v>63</v>
       </c>
       <c r="B56" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -4687,10 +4687,10 @@
         <v>63</v>
       </c>
       <c r="B57" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>97</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -4721,10 +4721,10 @@
         <v>63</v>
       </c>
       <c r="B58" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -4755,10 +4755,10 @@
         <v>63</v>
       </c>
       <c r="B59" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -4789,10 +4789,10 @@
         <v>63</v>
       </c>
       <c r="B60" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -4823,13 +4823,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>62</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -4912,13 +4912,13 @@
     </row>
     <row r="64" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A64" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="C64" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>108</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -4946,13 +4946,13 @@
     </row>
     <row r="65" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A65" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B65" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>110</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -4980,13 +4980,13 @@
     </row>
     <row r="66" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A66" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B66" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>112</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -5014,13 +5014,13 @@
     </row>
     <row r="67" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B67" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -5048,13 +5048,13 @@
     </row>
     <row r="68" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B68" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="13" t="s">
         <v>115</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>116</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -5082,16 +5082,16 @@
     </row>
     <row r="69" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A69" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B69" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="D69" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -5118,13 +5118,13 @@
     </row>
     <row r="70" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A70" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B70" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>121</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -5152,13 +5152,13 @@
     </row>
     <row r="71" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B71" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>123</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -5186,13 +5186,13 @@
     </row>
     <row r="72" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B72" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>125</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -5220,13 +5220,13 @@
     </row>
     <row r="73" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -5310,13 +5310,13 @@
     </row>
     <row r="76" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A76" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="C76" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>129</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -5344,13 +5344,13 @@
     </row>
     <row r="77" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A77" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B77" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -5378,13 +5378,13 @@
     </row>
     <row r="78" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A78" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -5412,13 +5412,13 @@
     </row>
     <row r="79" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B79" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" s="13" t="s">
         <v>133</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -5446,13 +5446,13 @@
     </row>
     <row r="80" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A80" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B80" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -5480,13 +5480,13 @@
     </row>
     <row r="81" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A81" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B81" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>138</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -5514,13 +5514,13 @@
     </row>
     <row r="82" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A82" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B82" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>140</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -5548,13 +5548,13 @@
     </row>
     <row r="83" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A83" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B83" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>142</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -5582,13 +5582,13 @@
     </row>
     <row r="84" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B84" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C84" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>144</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -5615,13 +5615,13 @@
     </row>
     <row r="85" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B85" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>146</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -5648,13 +5648,13 @@
     </row>
     <row r="86" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B86" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C86" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>148</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -5682,13 +5682,13 @@
     </row>
     <row r="87" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A87" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B87" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C87" s="13" t="s">
         <v>149</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>150</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -5716,13 +5716,13 @@
     </row>
     <row r="88" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A88" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B88" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C88" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>152</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -5750,13 +5750,13 @@
     </row>
     <row r="89" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A89" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B89" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C89" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>154</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -5784,10 +5784,10 @@
     </row>
     <row r="90" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A90" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>54</v>
@@ -5818,13 +5818,13 @@
     </row>
     <row r="91" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A91" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -5852,13 +5852,13 @@
     </row>
     <row r="92" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B92" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" s="13" t="s">
         <v>157</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>158</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -5886,13 +5886,13 @@
     </row>
     <row r="93" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A93" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B93" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C93" s="13" t="s">
         <v>159</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>160</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -5920,13 +5920,13 @@
     </row>
     <row r="94" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A94" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B94" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C94" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>162</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -5954,13 +5954,13 @@
     </row>
     <row r="95" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A95" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B95" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>164</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -5988,13 +5988,13 @@
     </row>
     <row r="96" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A96" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B96" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C96" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>166</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -6022,13 +6022,13 @@
     </row>
     <row r="97" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A97" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B97" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C97" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>168</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -6056,13 +6056,13 @@
     </row>
     <row r="98" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A98" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -6146,13 +6146,13 @@
     </row>
     <row r="101" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A101" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B101" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="B101" s="25" t="s">
+      <c r="C101" s="13" t="s">
         <v>171</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>172</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -6180,13 +6180,13 @@
     </row>
     <row r="102" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A102" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B102" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C102" s="13" t="s">
         <v>173</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>174</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -6214,10 +6214,10 @@
     </row>
     <row r="103" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A103" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>62</v>
@@ -6248,10 +6248,10 @@
     </row>
     <row r="104" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A104" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>62</v>
@@ -6282,13 +6282,13 @@
     </row>
     <row r="105" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A105" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B105" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C105" s="13" t="s">
         <v>177</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>178</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -6316,13 +6316,13 @@
     </row>
     <row r="106" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A106" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B106" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C106" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>180</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -6350,13 +6350,13 @@
     </row>
     <row r="107" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A107" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B107" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C107" s="13" t="s">
         <v>181</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>182</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -6384,10 +6384,10 @@
     </row>
     <row r="108" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A108" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>54</v>
@@ -6418,13 +6418,13 @@
     </row>
     <row r="109" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A109" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B109" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C109" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>185</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -6451,13 +6451,13 @@
     </row>
     <row r="110" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A110" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -6484,13 +6484,13 @@
     </row>
     <row r="111" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A111" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B111" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C111" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>188</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -6517,10 +6517,10 @@
     </row>
     <row r="112" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A112" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C112" s="13"/>
       <c r="E112" s="2"/>
@@ -6548,13 +6548,13 @@
     </row>
     <row r="113" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A113" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B113" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C113" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>191</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -6581,13 +6581,13 @@
     </row>
     <row r="114" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A114" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -6614,10 +6614,10 @@
     </row>
     <row r="115" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A115" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>54</v>
@@ -6648,10 +6648,10 @@
     </row>
     <row r="116" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A116" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C116" s="26" t="s">
         <v>54</v>
@@ -6682,13 +6682,13 @@
     </row>
     <row r="117" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A117" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B117" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C117" s="13" t="s">
         <v>195</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>196</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -6716,13 +6716,13 @@
     </row>
     <row r="118" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A118" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -6750,13 +6750,13 @@
     </row>
     <row r="119" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A119" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B119" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C119" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>199</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -6782,13 +6782,13 @@
     </row>
     <row r="120" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A120" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B120" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C120" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>201</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -6814,13 +6814,13 @@
     </row>
     <row r="121" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A121" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B121" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C121" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>203</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
@@ -6898,13 +6898,13 @@
     </row>
     <row r="124" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A124" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B124" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="C124" s="13" t="s">
         <v>205</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>206</v>
       </c>
       <c r="D124" s="13"/>
       <c r="F124" s="2"/>
@@ -6931,13 +6931,13 @@
     </row>
     <row r="125" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A125" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B125" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C125" s="13" t="s">
         <v>207</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>208</v>
       </c>
       <c r="D125" s="13"/>
       <c r="F125" s="2"/>
@@ -6964,13 +6964,13 @@
     </row>
     <row r="126" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A126" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B126" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C126" s="13" t="s">
         <v>209</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>210</v>
       </c>
       <c r="D126" s="13"/>
       <c r="F126" s="2"/>
@@ -6997,13 +6997,13 @@
     </row>
     <row r="127" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A127" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B127" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C127" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>212</v>
       </c>
       <c r="D127" s="13"/>
       <c r="F127" s="2"/>
@@ -7030,13 +7030,13 @@
     </row>
     <row r="128" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A128" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B128" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C128" s="28" t="s">
         <v>213</v>
-      </c>
-      <c r="C128" s="28" t="s">
-        <v>214</v>
       </c>
       <c r="D128" s="13"/>
       <c r="F128" s="2"/>
@@ -7063,13 +7063,13 @@
     </row>
     <row r="129" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A129" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B129" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C129" s="29" t="s">
         <v>215</v>
-      </c>
-      <c r="C129" s="29" t="s">
-        <v>216</v>
       </c>
       <c r="D129" s="13"/>
       <c r="F129" s="2"/>
@@ -7096,13 +7096,13 @@
     </row>
     <row r="130" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A130" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D130" s="13"/>
       <c r="F130" s="2"/>
@@ -7129,13 +7129,13 @@
     </row>
     <row r="131" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A131" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B131" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C131" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="D131" s="13"/>
       <c r="F131" s="2"/>
@@ -7162,13 +7162,13 @@
     </row>
     <row r="132" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A132" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B132" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C132" s="13" t="s">
         <v>220</v>
-      </c>
-      <c r="C132" s="13" t="s">
-        <v>221</v>
       </c>
       <c r="D132" s="13"/>
       <c r="F132" s="2"/>
@@ -7195,13 +7195,13 @@
     </row>
     <row r="133" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A133" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D133" s="13"/>
       <c r="F133" s="2"/>
@@ -7228,10 +7228,10 @@
     </row>
     <row r="134" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A134" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>54</v>
@@ -7261,13 +7261,13 @@
     </row>
     <row r="135" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A135" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B135" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C135" s="13" t="s">
         <v>224</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>225</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -7295,13 +7295,13 @@
     </row>
     <row r="136" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A136" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B136" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C136" s="13" t="s">
         <v>226</v>
-      </c>
-      <c r="C136" s="13" t="s">
-        <v>227</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -7329,13 +7329,13 @@
     </row>
     <row r="137" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A137" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B137" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C137" s="13" t="s">
         <v>228</v>
-      </c>
-      <c r="C137" s="13" t="s">
-        <v>229</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="30"/>
@@ -7363,10 +7363,10 @@
     </row>
     <row r="138" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A138" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C138" s="13" t="s">
         <v>54</v>
@@ -7397,13 +7397,13 @@
     </row>
     <row r="139" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A139" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -7431,13 +7431,13 @@
     </row>
     <row r="140" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A140" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B140" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C140" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>233</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -7465,13 +7465,13 @@
     </row>
     <row r="141" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A141" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B141" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C141" s="13" t="s">
         <v>234</v>
-      </c>
-      <c r="C141" s="13" t="s">
-        <v>235</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -7499,13 +7499,13 @@
     </row>
     <row r="142" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A142" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B142" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C142" s="13" t="s">
         <v>236</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>237</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="30"/>
@@ -7533,13 +7533,13 @@
     </row>
     <row r="143" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A143" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B143" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C143" s="13" t="s">
         <v>238</v>
-      </c>
-      <c r="C143" s="13" t="s">
-        <v>239</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="30"/>
@@ -7567,16 +7567,16 @@
     </row>
     <row r="144" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A144" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B144" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C144" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C144" s="13" t="s">
+      <c r="D144" s="31" t="s">
         <v>241</v>
-      </c>
-      <c r="D144" s="31" t="s">
-        <v>242</v>
       </c>
       <c r="E144" s="30"/>
       <c r="F144" s="2"/>
@@ -7603,16 +7603,16 @@
     </row>
     <row r="145" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A145" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B145" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C145" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="C145" s="13" t="s">
-        <v>244</v>
-      </c>
       <c r="D145" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -7639,13 +7639,13 @@
     </row>
     <row r="146" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A146" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B146" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C146" s="13" t="s">
         <v>245</v>
-      </c>
-      <c r="C146" s="13" t="s">
-        <v>246</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="30"/>
@@ -7673,13 +7673,13 @@
     </row>
     <row r="147" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A147" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B147" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C147" s="28" t="s">
         <v>247</v>
-      </c>
-      <c r="C147" s="28" t="s">
-        <v>248</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="30"/>
@@ -7707,13 +7707,13 @@
     </row>
     <row r="148" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A148" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B148" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C148" s="13" t="s">
         <v>249</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>250</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="30"/>
@@ -7741,13 +7741,13 @@
     </row>
     <row r="149" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A149" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B149" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C149" s="13" t="s">
         <v>251</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>252</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="30"/>
@@ -7804,7 +7804,7 @@
     <row r="151" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A151" s="19"/>
       <c r="B151" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C151" s="18"/>
       <c r="D151" s="2"/>
@@ -7833,13 +7833,13 @@
     </row>
     <row r="152" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A152" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B152" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="B152" s="14" t="s">
+      <c r="C152" s="13" t="s">
         <v>255</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>256</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -7867,13 +7867,13 @@
     </row>
     <row r="153" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A153" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B153" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C153" s="13" t="s">
         <v>257</v>
-      </c>
-      <c r="C153" s="13" t="s">
-        <v>258</v>
       </c>
       <c r="D153" s="30"/>
       <c r="E153" s="2"/>
@@ -7901,13 +7901,13 @@
     </row>
     <row r="154" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A154" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B154" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C154" s="13" t="s">
         <v>259</v>
-      </c>
-      <c r="C154" s="13" t="s">
-        <v>260</v>
       </c>
       <c r="D154" s="30"/>
       <c r="E154" s="2"/>
@@ -7935,13 +7935,13 @@
     </row>
     <row r="155" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A155" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B155" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C155" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="D155" s="30"/>
       <c r="E155" s="2"/>
@@ -7969,13 +7969,13 @@
     </row>
     <row r="156" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A156" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B156" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C156" s="13" t="s">
         <v>263</v>
-      </c>
-      <c r="C156" s="13" t="s">
-        <v>264</v>
       </c>
       <c r="D156" s="30"/>
       <c r="E156" s="2"/>
@@ -8003,13 +8003,13 @@
     </row>
     <row r="157" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A157" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B157" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C157" s="13" t="s">
         <v>265</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>266</v>
       </c>
       <c r="D157" s="30"/>
       <c r="E157" s="2"/>
@@ -8037,13 +8037,13 @@
     </row>
     <row r="158" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A158" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B158" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C158" s="13" t="s">
         <v>267</v>
-      </c>
-      <c r="C158" s="13" t="s">
-        <v>268</v>
       </c>
       <c r="D158" s="30"/>
       <c r="E158" s="2"/>
@@ -8071,13 +8071,13 @@
     </row>
     <row r="159" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A159" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B159" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C159" s="13" t="s">
         <v>269</v>
-      </c>
-      <c r="C159" s="13" t="s">
-        <v>270</v>
       </c>
       <c r="D159" s="30"/>
       <c r="E159" s="2"/>
@@ -8105,13 +8105,13 @@
     </row>
     <row r="160" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A160" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B160" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C160" s="13" t="s">
         <v>271</v>
-      </c>
-      <c r="C160" s="13" t="s">
-        <v>272</v>
       </c>
       <c r="D160" s="30"/>
       <c r="E160" s="2"/>
@@ -8139,13 +8139,13 @@
     </row>
     <row r="161" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A161" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C161" s="13" t="s">
         <v>273</v>
-      </c>
-      <c r="C161" s="13" t="s">
-        <v>274</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
@@ -8171,13 +8171,13 @@
     </row>
     <row r="162" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A162" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B162" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="C162" s="13" t="s">
         <v>275</v>
-      </c>
-      <c r="C162" s="13" t="s">
-        <v>276</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
@@ -8203,13 +8203,13 @@
     </row>
     <row r="163" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A163" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B163" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C163" s="13" t="s">
         <v>277</v>
-      </c>
-      <c r="C163" s="13" t="s">
-        <v>278</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -8235,10 +8235,10 @@
     </row>
     <row r="164" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A164" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C164" s="13" t="s">
         <v>54</v>
@@ -8267,13 +8267,13 @@
     </row>
     <row r="165" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A165" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C165" s="13" t="s">
         <v>280</v>
-      </c>
-      <c r="C165" s="13" t="s">
-        <v>281</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -8299,13 +8299,13 @@
     </row>
     <row r="166" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A166" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B166" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C166" s="13" t="s">
         <v>282</v>
-      </c>
-      <c r="C166" s="13" t="s">
-        <v>283</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
@@ -8331,13 +8331,13 @@
     </row>
     <row r="167" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A167" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B167" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C167" s="13" t="s">
         <v>284</v>
-      </c>
-      <c r="C167" s="13" t="s">
-        <v>285</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
@@ -8363,13 +8363,13 @@
     </row>
     <row r="168" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A168" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
@@ -8395,13 +8395,13 @@
     </row>
     <row r="169" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A169" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B169" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C169" s="13" t="s">
         <v>287</v>
-      </c>
-      <c r="C169" s="13" t="s">
-        <v>288</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
@@ -8427,13 +8427,13 @@
     </row>
     <row r="170" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A170" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B170" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
@@ -8459,13 +8459,13 @@
     </row>
     <row r="171" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A171" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B171" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C171" s="13" t="s">
         <v>290</v>
-      </c>
-      <c r="C171" s="13" t="s">
-        <v>291</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
@@ -8491,13 +8491,13 @@
     </row>
     <row r="172" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A172" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B172" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="C172" s="13" t="s">
         <v>292</v>
-      </c>
-      <c r="C172" s="13" t="s">
-        <v>293</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
@@ -8523,13 +8523,13 @@
     </row>
     <row r="173" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A173" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -8555,13 +8555,13 @@
     </row>
     <row r="174" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A174" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
@@ -8587,13 +8587,13 @@
     </row>
     <row r="175" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A175" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -8619,13 +8619,13 @@
     </row>
     <row r="176" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A176" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B176" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C176" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="C176" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
@@ -8651,13 +8651,13 @@
     </row>
     <row r="177" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A177" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B177" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="C177" s="13" t="s">
         <v>299</v>
-      </c>
-      <c r="C177" s="13" t="s">
-        <v>300</v>
       </c>
       <c r="D177" s="32"/>
       <c r="E177" s="2"/>
@@ -8685,13 +8685,13 @@
     </row>
     <row r="178" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A178" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D178" s="32"/>
       <c r="E178" s="2"/>
@@ -8773,13 +8773,13 @@
     </row>
     <row r="181" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A181" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B181" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B181" s="14" t="s">
+      <c r="C181" s="33" t="s">
         <v>303</v>
-      </c>
-      <c r="C181" s="33" t="s">
-        <v>304</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -8807,13 +8807,13 @@
     </row>
     <row r="182" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A182" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B182" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C182" s="33" t="s">
         <v>305</v>
-      </c>
-      <c r="C182" s="33" t="s">
-        <v>306</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -8841,13 +8841,13 @@
     </row>
     <row r="183" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A183" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C183" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -8875,13 +8875,13 @@
     </row>
     <row r="184" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A184" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C184" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -8909,13 +8909,13 @@
     </row>
     <row r="185" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A185" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B185" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C185" s="33" t="s">
         <v>309</v>
-      </c>
-      <c r="C185" s="33" t="s">
-        <v>310</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -8943,10 +8943,10 @@
     </row>
     <row r="186" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A186" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C186" s="33"/>
       <c r="F186" s="2"/>
@@ -8973,13 +8973,13 @@
     </row>
     <row r="187" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A187" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B187" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C187" s="33" t="s">
         <v>312</v>
-      </c>
-      <c r="C187" s="33" t="s">
-        <v>313</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
@@ -9005,13 +9005,13 @@
     </row>
     <row r="188" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A188" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B188" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C188" s="33" t="s">
         <v>314</v>
-      </c>
-      <c r="C188" s="33" t="s">
-        <v>315</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
@@ -9037,10 +9037,10 @@
     </row>
     <row r="189" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A189" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C189" s="33"/>
       <c r="F189" s="2"/>
@@ -9067,13 +9067,13 @@
     </row>
     <row r="190" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A190" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C190" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
@@ -9099,13 +9099,13 @@
     </row>
     <row r="191" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A191" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B191" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C191" s="33" t="s">
         <v>318</v>
-      </c>
-      <c r="C191" s="33" t="s">
-        <v>319</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
@@ -9131,13 +9131,13 @@
     </row>
     <row r="192" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A192" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B192" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C192" s="33" t="s">
         <v>320</v>
-      </c>
-      <c r="C192" s="33" t="s">
-        <v>321</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
@@ -9163,13 +9163,13 @@
     </row>
     <row r="193" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A193" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B193" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C193" s="33" t="s">
         <v>322</v>
-      </c>
-      <c r="C193" s="33" t="s">
-        <v>323</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
@@ -9195,13 +9195,13 @@
     </row>
     <row r="194" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A194" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
@@ -9227,10 +9227,10 @@
     </row>
     <row r="195" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A195" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C195" s="33" t="s">
         <v>54</v>
@@ -9259,13 +9259,13 @@
     </row>
     <row r="196" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A196" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B196" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C196" s="13" t="s">
         <v>326</v>
-      </c>
-      <c r="C196" s="13" t="s">
-        <v>327</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
@@ -9291,10 +9291,10 @@
     </row>
     <row r="197" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A197" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C197" s="13"/>
       <c r="F197" s="2"/>
@@ -9321,13 +9321,13 @@
     </row>
     <row r="198" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A198" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B198" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C198" s="13" t="s">
         <v>329</v>
-      </c>
-      <c r="C198" s="13" t="s">
-        <v>330</v>
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
@@ -9353,13 +9353,13 @@
     </row>
     <row r="199" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A199" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
@@ -9385,10 +9385,10 @@
     </row>
     <row r="200" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A200" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C200" s="13"/>
       <c r="F200" s="2"/>
@@ -9415,10 +9415,10 @@
     </row>
     <row r="201" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A201" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C201" s="13"/>
       <c r="F201" s="2"/>
@@ -9445,13 +9445,13 @@
     </row>
     <row r="202" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A202" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
@@ -9533,13 +9533,13 @@
     </row>
     <row r="205" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A205" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B205" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="B205" s="14" t="s">
+      <c r="C205" s="13" t="s">
         <v>336</v>
-      </c>
-      <c r="C205" s="13" t="s">
-        <v>337</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -9567,13 +9567,13 @@
     </row>
     <row r="206" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A206" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B206" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C206" s="13" t="s">
         <v>338</v>
-      </c>
-      <c r="C206" s="13" t="s">
-        <v>339</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -9601,13 +9601,13 @@
     </row>
     <row r="207" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A207" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B207" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C207" s="13" t="s">
         <v>340</v>
-      </c>
-      <c r="C207" s="13" t="s">
-        <v>341</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -9635,13 +9635,13 @@
     </row>
     <row r="208" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A208" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B208" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="C208" s="13" t="s">
         <v>342</v>
-      </c>
-      <c r="C208" s="13" t="s">
-        <v>343</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -9669,13 +9669,13 @@
     </row>
     <row r="209" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A209" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B209" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C209" s="13" t="s">
         <v>344</v>
-      </c>
-      <c r="C209" s="13" t="s">
-        <v>345</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -9703,13 +9703,13 @@
     </row>
     <row r="210" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A210" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B210" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="C210" s="13" t="s">
         <v>346</v>
-      </c>
-      <c r="C210" s="13" t="s">
-        <v>347</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -9737,13 +9737,13 @@
     </row>
     <row r="211" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A211" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="32"/>
@@ -9770,13 +9770,13 @@
     </row>
     <row r="212" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A212" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B212" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C212" s="13" t="s">
         <v>349</v>
-      </c>
-      <c r="C212" s="13" t="s">
-        <v>350</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" s="32"/>
@@ -9803,13 +9803,13 @@
     </row>
     <row r="213" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A213" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B213" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C213" s="13" t="s">
         <v>351</v>
-      </c>
-      <c r="C213" s="13" t="s">
-        <v>352</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" s="32"/>
@@ -9836,13 +9836,13 @@
     </row>
     <row r="214" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A214" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" s="32"/>
@@ -9869,13 +9869,13 @@
     </row>
     <row r="215" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A215" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B215" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="C215" s="13" t="s">
         <v>354</v>
-      </c>
-      <c r="C215" s="13" t="s">
-        <v>355</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" s="32"/>
@@ -9902,13 +9902,13 @@
     </row>
     <row r="216" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A216" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B216" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C216" s="13" t="s">
         <v>356</v>
-      </c>
-      <c r="C216" s="13" t="s">
-        <v>357</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" s="32"/>
@@ -9935,13 +9935,13 @@
     </row>
     <row r="217" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A217" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" s="32"/>
@@ -9968,13 +9968,13 @@
     </row>
     <row r="218" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A218" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" s="32"/>
@@ -10001,13 +10001,13 @@
     </row>
     <row r="219" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A219" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B219" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="C219" s="13" t="s">
         <v>360</v>
-      </c>
-      <c r="C219" s="13" t="s">
-        <v>361</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -10035,13 +10035,13 @@
     </row>
     <row r="220" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A220" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -10069,13 +10069,13 @@
     </row>
     <row r="221" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A221" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B221" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C221" s="13" t="s">
         <v>363</v>
-      </c>
-      <c r="C221" s="13" t="s">
-        <v>364</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -10103,13 +10103,13 @@
     </row>
     <row r="222" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A222" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B222" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="C222" s="13" t="s">
         <v>365</v>
-      </c>
-      <c r="C222" s="13" t="s">
-        <v>366</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -10137,13 +10137,13 @@
     </row>
     <row r="223" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A223" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B223" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="C223" s="13" t="s">
         <v>367</v>
-      </c>
-      <c r="C223" s="13" t="s">
-        <v>368</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -10171,13 +10171,13 @@
     </row>
     <row r="224" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A224" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -10205,13 +10205,13 @@
     </row>
     <row r="225" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A225" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B225" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C225" s="13" t="s">
         <v>370</v>
-      </c>
-      <c r="C225" s="13" t="s">
-        <v>371</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -10239,13 +10239,13 @@
     </row>
     <row r="226" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A226" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B226" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C226" s="13" t="s">
         <v>372</v>
-      </c>
-      <c r="C226" s="13" t="s">
-        <v>373</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -10273,13 +10273,13 @@
     </row>
     <row r="227" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A227" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B227" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C227" s="13" t="s">
         <v>374</v>
-      </c>
-      <c r="C227" s="13" t="s">
-        <v>375</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -10307,13 +10307,13 @@
     </row>
     <row r="228" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A228" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B228" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -10341,13 +10341,13 @@
     </row>
     <row r="229" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A229" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B229" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="C229" s="13" t="s">
         <v>377</v>
-      </c>
-      <c r="C229" s="13" t="s">
-        <v>378</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -10375,13 +10375,13 @@
     </row>
     <row r="230" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A230" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B230" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="C230" s="13" t="s">
         <v>379</v>
-      </c>
-      <c r="C230" s="13" t="s">
-        <v>380</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -10409,13 +10409,13 @@
     </row>
     <row r="231" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A231" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B231" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="C231" s="13" t="s">
         <v>381</v>
-      </c>
-      <c r="C231" s="13" t="s">
-        <v>382</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -10443,13 +10443,13 @@
     </row>
     <row r="232" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A232" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B232" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C232" s="13" t="s">
         <v>383</v>
-      </c>
-      <c r="C232" s="13" t="s">
-        <v>384</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -10477,13 +10477,13 @@
     </row>
     <row r="233" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A233" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B233" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="C233" s="13" t="s">
         <v>385</v>
-      </c>
-      <c r="C233" s="13" t="s">
-        <v>386</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -10511,13 +10511,13 @@
     </row>
     <row r="234" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A234" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B234" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="C234" s="13" t="s">
         <v>387</v>
-      </c>
-      <c r="C234" s="13" t="s">
-        <v>388</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -10545,13 +10545,13 @@
     </row>
     <row r="235" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A235" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B235" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C235" s="13" t="s">
         <v>389</v>
-      </c>
-      <c r="C235" s="13" t="s">
-        <v>390</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -10579,13 +10579,13 @@
     </row>
     <row r="236" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A236" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B236" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="C236" s="13" t="s">
         <v>391</v>
-      </c>
-      <c r="C236" s="13" t="s">
-        <v>392</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -10613,13 +10613,13 @@
     </row>
     <row r="237" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A237" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B237" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C237" s="13" t="s">
         <v>393</v>
-      </c>
-      <c r="C237" s="13" t="s">
-        <v>394</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -10703,13 +10703,13 @@
     </row>
     <row r="240" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A240" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B240" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="B240" s="14" t="s">
+      <c r="C240" s="13" t="s">
         <v>396</v>
-      </c>
-      <c r="C240" s="13" t="s">
-        <v>397</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -10737,13 +10737,13 @@
     </row>
     <row r="241" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A241" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B241" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C241" s="13" t="s">
         <v>398</v>
-      </c>
-      <c r="C241" s="13" t="s">
-        <v>399</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -10771,13 +10771,13 @@
     </row>
     <row r="242" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A242" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="32"/>
@@ -10805,13 +10805,13 @@
     </row>
     <row r="243" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A243" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B243" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C243" s="13" t="s">
         <v>401</v>
-      </c>
-      <c r="C243" s="13" t="s">
-        <v>402</v>
       </c>
       <c r="D243" s="13"/>
       <c r="F243" s="32"/>
@@ -10838,13 +10838,13 @@
     </row>
     <row r="244" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A244" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D244" s="13"/>
       <c r="F244" s="2"/>
@@ -10871,13 +10871,13 @@
     </row>
     <row r="245" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A245" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B245" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C245" s="13" t="s">
         <v>404</v>
-      </c>
-      <c r="C245" s="13" t="s">
-        <v>405</v>
       </c>
       <c r="D245" s="13"/>
       <c r="F245" s="2"/>
@@ -10904,13 +10904,13 @@
     </row>
     <row r="246" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A246" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B246" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C246" s="13" t="s">
         <v>406</v>
-      </c>
-      <c r="C246" s="13" t="s">
-        <v>407</v>
       </c>
       <c r="D246" s="13"/>
       <c r="F246" s="2"/>
@@ -10937,13 +10937,13 @@
     </row>
     <row r="247" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A247" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B247" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C247" s="13" t="s">
         <v>408</v>
-      </c>
-      <c r="C247" s="13" t="s">
-        <v>409</v>
       </c>
       <c r="D247" s="13"/>
       <c r="F247" s="2"/>
@@ -10970,13 +10970,13 @@
     </row>
     <row r="248" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A248" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B248" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="C248" s="13" t="s">
         <v>410</v>
-      </c>
-      <c r="C248" s="13" t="s">
-        <v>411</v>
       </c>
       <c r="D248" s="13"/>
       <c r="F248" s="2"/>
@@ -11003,13 +11003,13 @@
     </row>
     <row r="249" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A249" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B249" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C249" s="13" t="s">
         <v>412</v>
-      </c>
-      <c r="C249" s="13" t="s">
-        <v>413</v>
       </c>
       <c r="D249" s="13"/>
       <c r="F249" s="2"/>
@@ -11036,13 +11036,13 @@
     </row>
     <row r="250" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A250" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D250" s="13"/>
       <c r="F250" s="2"/>
@@ -11069,13 +11069,13 @@
     </row>
     <row r="251" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A251" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B251" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="C251" s="13" t="s">
         <v>415</v>
-      </c>
-      <c r="C251" s="13" t="s">
-        <v>416</v>
       </c>
       <c r="D251" s="13"/>
       <c r="F251" s="2"/>
@@ -11102,13 +11102,13 @@
     </row>
     <row r="252" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A252" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B252" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C252" s="13" t="s">
         <v>417</v>
-      </c>
-      <c r="C252" s="13" t="s">
-        <v>418</v>
       </c>
       <c r="D252" s="13"/>
       <c r="F252" s="2"/>
@@ -11135,13 +11135,13 @@
     </row>
     <row r="253" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A253" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B253" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="C253" s="13" t="s">
         <v>419</v>
-      </c>
-      <c r="C253" s="13" t="s">
-        <v>420</v>
       </c>
       <c r="D253" s="13"/>
       <c r="F253" s="2"/>
@@ -11168,13 +11168,13 @@
     </row>
     <row r="254" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A254" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C254" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D254" s="13"/>
       <c r="F254" s="2"/>
@@ -11201,13 +11201,13 @@
     </row>
     <row r="255" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A255" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C255" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D255" s="13"/>
       <c r="F255" s="2"/>
@@ -11234,13 +11234,13 @@
     </row>
     <row r="256" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A256" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C256" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D256" s="13"/>
       <c r="F256" s="2"/>
@@ -11267,13 +11267,13 @@
     </row>
     <row r="257" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A257" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C257" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D257" s="13"/>
       <c r="F257" s="2"/>
@@ -11300,13 +11300,13 @@
     </row>
     <row r="258" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A258" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B258" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="C258" s="13" t="s">
         <v>425</v>
-      </c>
-      <c r="C258" s="13" t="s">
-        <v>426</v>
       </c>
       <c r="D258" s="13"/>
       <c r="F258" s="2"/>
@@ -11333,13 +11333,13 @@
     </row>
     <row r="259" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A259" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C259" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -11367,16 +11367,16 @@
     </row>
     <row r="260" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A260" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B260" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="C260" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="C260" s="13" t="s">
-        <v>429</v>
-      </c>
       <c r="D260" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
@@ -11459,10 +11459,10 @@
     </row>
     <row r="263" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A263" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B263" s="14" t="s">
         <v>430</v>
-      </c>
-      <c r="B263" s="14" t="s">
-        <v>431</v>
       </c>
       <c r="C263" s="13"/>
       <c r="D263" s="2"/>
@@ -11491,13 +11491,13 @@
     </row>
     <row r="264" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A264" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C264" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D264" s="30"/>
       <c r="E264" s="2"/>
@@ -11525,13 +11525,13 @@
     </row>
     <row r="265" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A265" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C265" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D265" s="30"/>
       <c r="E265" s="2"/>
@@ -11559,10 +11559,10 @@
     </row>
     <row r="266" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A266" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C266" s="13" t="s">
         <v>33</v>
@@ -11593,13 +11593,13 @@
     </row>
     <row r="267" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A267" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B267" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="C267" s="13" t="s">
         <v>435</v>
-      </c>
-      <c r="C267" s="13" t="s">
-        <v>436</v>
       </c>
       <c r="D267" s="30"/>
       <c r="E267" s="2"/>
@@ -11627,10 +11627,10 @@
     </row>
     <row r="268" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A268" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C268" s="13" t="s">
         <v>16</v>
@@ -11661,13 +11661,13 @@
     </row>
     <row r="269" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A269" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B269" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="C269" s="13" t="s">
         <v>438</v>
-      </c>
-      <c r="C269" s="13" t="s">
-        <v>439</v>
       </c>
       <c r="D269" s="30"/>
       <c r="E269" s="2"/>
@@ -11695,10 +11695,10 @@
     </row>
     <row r="270" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A270" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B270" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C270" s="13" t="s">
         <v>16</v>
@@ -11729,13 +11729,13 @@
     </row>
     <row r="271" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A271" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B271" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="C271" s="13" t="s">
         <v>441</v>
-      </c>
-      <c r="C271" s="13" t="s">
-        <v>442</v>
       </c>
       <c r="D271" s="30"/>
       <c r="E271" s="2"/>
@@ -11763,13 +11763,13 @@
     </row>
     <row r="272" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A272" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B272" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="C272" s="28" t="s">
         <v>443</v>
-      </c>
-      <c r="C272" s="28" t="s">
-        <v>444</v>
       </c>
       <c r="D272" s="30"/>
       <c r="E272" s="2"/>
@@ -11797,13 +11797,13 @@
     </row>
     <row r="273" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A273" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B273" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="C273" s="13" t="s">
         <v>445</v>
-      </c>
-      <c r="C273" s="13" t="s">
-        <v>446</v>
       </c>
       <c r="D273" s="30"/>
       <c r="E273" s="2"/>
@@ -11831,13 +11831,13 @@
     </row>
     <row r="274" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A274" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B274" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="C274" s="13" t="s">
         <v>447</v>
-      </c>
-      <c r="C274" s="13" t="s">
-        <v>448</v>
       </c>
       <c r="D274" s="30"/>
       <c r="E274" s="2"/>
@@ -11865,13 +11865,13 @@
     </row>
     <row r="275" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A275" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B275" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="C275" s="13" t="s">
         <v>449</v>
-      </c>
-      <c r="C275" s="13" t="s">
-        <v>450</v>
       </c>
       <c r="D275" s="30"/>
       <c r="E275" s="2"/>
@@ -11899,13 +11899,13 @@
     </row>
     <row r="276" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A276" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B276" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="C276" s="13" t="s">
         <v>451</v>
-      </c>
-      <c r="C276" s="13" t="s">
-        <v>452</v>
       </c>
       <c r="D276" s="30"/>
       <c r="E276" s="2"/>
@@ -11933,13 +11933,13 @@
     </row>
     <row r="277" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A277" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D277" s="30"/>
       <c r="E277" s="2"/>
@@ -11967,13 +11967,13 @@
     </row>
     <row r="278" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A278" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B278" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="C278" s="13" t="s">
         <v>454</v>
-      </c>
-      <c r="C278" s="13" t="s">
-        <v>455</v>
       </c>
       <c r="D278" s="30"/>
       <c r="E278" s="2"/>
@@ -12001,13 +12001,13 @@
     </row>
     <row r="279" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A279" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C279" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D279" s="30"/>
       <c r="E279" s="2"/>
@@ -12035,13 +12035,13 @@
     </row>
     <row r="280" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A280" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B280" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="C280" s="13" t="s">
         <v>457</v>
-      </c>
-      <c r="C280" s="13" t="s">
-        <v>458</v>
       </c>
       <c r="D280" s="30"/>
       <c r="E280" s="2"/>
@@ -12069,13 +12069,13 @@
     </row>
     <row r="281" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A281" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B281" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="C281" s="13" t="s">
         <v>459</v>
-      </c>
-      <c r="C281" s="13" t="s">
-        <v>460</v>
       </c>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
@@ -12102,13 +12102,13 @@
     </row>
     <row r="282" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A282" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B282" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="C282" s="13" t="s">
         <v>461</v>
-      </c>
-      <c r="C282" s="13" t="s">
-        <v>462</v>
       </c>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
@@ -12135,13 +12135,13 @@
     </row>
     <row r="283" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A283" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B283" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="C283" s="13" t="s">
         <v>463</v>
-      </c>
-      <c r="C283" s="13" t="s">
-        <v>464</v>
       </c>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
@@ -12168,13 +12168,13 @@
     </row>
     <row r="284" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A284" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B284" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="C284" s="13" t="s">
         <v>465</v>
-      </c>
-      <c r="C284" s="13" t="s">
-        <v>466</v>
       </c>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
@@ -12201,10 +12201,10 @@
     </row>
     <row r="285" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A285" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C285" s="13" t="s">
         <v>65</v>
@@ -12234,13 +12234,13 @@
     </row>
     <row r="286" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A286" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B286" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="C286" s="13" t="s">
         <v>468</v>
-      </c>
-      <c r="C286" s="13" t="s">
-        <v>469</v>
       </c>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
@@ -12267,13 +12267,13 @@
     </row>
     <row r="287" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A287" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B287" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C287" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
@@ -12300,13 +12300,13 @@
     </row>
     <row r="288" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A288" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C288" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
@@ -12333,13 +12333,13 @@
     </row>
     <row r="289" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A289" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B289" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="C289" s="13" t="s">
         <v>472</v>
-      </c>
-      <c r="C289" s="13" t="s">
-        <v>473</v>
       </c>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
@@ -12366,13 +12366,13 @@
     </row>
     <row r="290" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A290" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C290" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
@@ -12454,13 +12454,13 @@
     </row>
     <row r="293" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A293" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B293" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="B293" s="14" t="s">
+      <c r="C293" s="13" t="s">
         <v>476</v>
-      </c>
-      <c r="C293" s="13" t="s">
-        <v>477</v>
       </c>
       <c r="D293" s="32"/>
       <c r="E293" s="2"/>
@@ -12488,13 +12488,13 @@
     </row>
     <row r="294" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A294" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B294" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C294" s="13" t="s">
         <v>478</v>
-      </c>
-      <c r="C294" s="13" t="s">
-        <v>479</v>
       </c>
       <c r="D294" s="32"/>
       <c r="E294" s="2"/>
@@ -12522,13 +12522,13 @@
     </row>
     <row r="295" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A295" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B295" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="C295" s="13" t="s">
         <v>480</v>
-      </c>
-      <c r="C295" s="13" t="s">
-        <v>481</v>
       </c>
       <c r="D295" s="32"/>
       <c r="E295" s="2"/>
@@ -12556,13 +12556,13 @@
     </row>
     <row r="296" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A296" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C296" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D296" s="32"/>
       <c r="E296" s="2"/>
@@ -12590,13 +12590,13 @@
     </row>
     <row r="297" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A297" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B297" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="C297" s="13" t="s">
         <v>483</v>
-      </c>
-      <c r="C297" s="13" t="s">
-        <v>484</v>
       </c>
       <c r="D297" s="32"/>
       <c r="E297" s="2"/>
@@ -12624,13 +12624,13 @@
     </row>
     <row r="298" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A298" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C298" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D298" s="32"/>
       <c r="E298" s="2"/>
@@ -12658,13 +12658,13 @@
     </row>
     <row r="299" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A299" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B299" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="C299" s="13" t="s">
         <v>486</v>
-      </c>
-      <c r="C299" s="13" t="s">
-        <v>487</v>
       </c>
       <c r="D299" s="32"/>
       <c r="E299" s="2"/>
@@ -12692,13 +12692,13 @@
     </row>
     <row r="300" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A300" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B300" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="C300" s="13" t="s">
         <v>488</v>
-      </c>
-      <c r="C300" s="13" t="s">
-        <v>489</v>
       </c>
       <c r="D300" s="32"/>
       <c r="E300" s="2"/>
@@ -12726,13 +12726,13 @@
     </row>
     <row r="301" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A301" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B301" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="C301" s="13" t="s">
         <v>490</v>
-      </c>
-      <c r="C301" s="13" t="s">
-        <v>491</v>
       </c>
       <c r="D301" s="32"/>
       <c r="E301" s="2"/>
@@ -12760,13 +12760,13 @@
     </row>
     <row r="302" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A302" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C302" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D302" s="32"/>
       <c r="E302" s="2"/>
@@ -12794,13 +12794,13 @@
     </row>
     <row r="303" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A303" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B303" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="C303" s="13" t="s">
         <v>493</v>
-      </c>
-      <c r="C303" s="13" t="s">
-        <v>494</v>
       </c>
       <c r="D303" s="32"/>
       <c r="E303" s="2"/>
@@ -12828,13 +12828,13 @@
     </row>
     <row r="304" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A304" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B304" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="C304" s="13" t="s">
         <v>495</v>
-      </c>
-      <c r="C304" s="13" t="s">
-        <v>496</v>
       </c>
       <c r="D304" s="32"/>
       <c r="E304" s="2"/>
@@ -12862,13 +12862,13 @@
     </row>
     <row r="305" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A305" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C305" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D305" s="32"/>
       <c r="E305" s="2"/>
@@ -12896,10 +12896,10 @@
     </row>
     <row r="306" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A306" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C306" s="13" t="s">
         <v>54</v>
@@ -12930,13 +12930,13 @@
     </row>
     <row r="307" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A307" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B307" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="C307" s="13" t="s">
         <v>499</v>
-      </c>
-      <c r="C307" s="13" t="s">
-        <v>500</v>
       </c>
       <c r="D307" s="32"/>
       <c r="E307" s="2"/>
@@ -12964,13 +12964,13 @@
     </row>
     <row r="308" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A308" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B308" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="C308" s="13" t="s">
         <v>501</v>
-      </c>
-      <c r="C308" s="13" t="s">
-        <v>502</v>
       </c>
       <c r="D308" s="32"/>
       <c r="E308" s="2"/>
@@ -12998,13 +12998,13 @@
     </row>
     <row r="309" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A309" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B309" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C309" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D309" s="32"/>
       <c r="E309" s="2"/>
@@ -13032,10 +13032,10 @@
     </row>
     <row r="310" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A310" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B310" s="34" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C310" s="13" t="s">
         <v>54</v>
@@ -13066,13 +13066,13 @@
     </row>
     <row r="311" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A311" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B311" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="C311" s="13" t="s">
         <v>505</v>
-      </c>
-      <c r="C311" s="13" t="s">
-        <v>506</v>
       </c>
       <c r="D311" s="32"/>
       <c r="E311" s="2"/>
@@ -13100,13 +13100,13 @@
     </row>
     <row r="312" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A312" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C312" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D312" s="32"/>
       <c r="E312" s="2"/>
@@ -13134,13 +13134,13 @@
     </row>
     <row r="313" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A313" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B313" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="C313" s="13" t="s">
         <v>508</v>
-      </c>
-      <c r="C313" s="13" t="s">
-        <v>509</v>
       </c>
       <c r="D313" s="32"/>
       <c r="E313" s="2"/>
@@ -13168,13 +13168,13 @@
     </row>
     <row r="314" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A314" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B314" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="C314" s="13" t="s">
         <v>510</v>
-      </c>
-      <c r="C314" s="13" t="s">
-        <v>511</v>
       </c>
       <c r="D314" s="32"/>
       <c r="E314" s="2"/>
@@ -13202,13 +13202,13 @@
     </row>
     <row r="315" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A315" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B315" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="C315" s="13" t="s">
         <v>512</v>
-      </c>
-      <c r="C315" s="13" t="s">
-        <v>513</v>
       </c>
       <c r="D315" s="32"/>
       <c r="E315" s="2"/>
@@ -13236,13 +13236,13 @@
     </row>
     <row r="316" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A316" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B316" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C316" s="13" t="s">
         <v>514</v>
-      </c>
-      <c r="C316" s="13" t="s">
-        <v>515</v>
       </c>
       <c r="D316" s="32"/>
       <c r="E316" s="2"/>
@@ -13270,13 +13270,13 @@
     </row>
     <row r="317" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A317" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C317" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D317" s="32"/>
       <c r="E317" s="2"/>
@@ -13304,13 +13304,13 @@
     </row>
     <row r="318" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A318" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B318" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="C318" s="13" t="s">
         <v>516</v>
-      </c>
-      <c r="C318" s="13" t="s">
-        <v>517</v>
       </c>
       <c r="D318" s="32"/>
       <c r="E318" s="2"/>
@@ -13338,13 +13338,13 @@
     </row>
     <row r="319" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A319" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B319" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="C319" s="13" t="s">
         <v>518</v>
-      </c>
-      <c r="C319" s="13" t="s">
-        <v>519</v>
       </c>
       <c r="D319" s="32"/>
       <c r="E319" s="2"/>
@@ -13372,13 +13372,13 @@
     </row>
     <row r="320" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A320" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B320" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C320" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D320" s="32"/>
       <c r="E320" s="2"/>
@@ -13406,13 +13406,13 @@
     </row>
     <row r="321" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A321" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B321" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="C321" s="13" t="s">
         <v>521</v>
-      </c>
-      <c r="C321" s="13" t="s">
-        <v>522</v>
       </c>
       <c r="D321" s="32"/>
       <c r="E321" s="2"/>
@@ -13440,10 +13440,10 @@
     </row>
     <row r="322" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A322" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C322" s="13" t="s">
         <v>62</v>
@@ -13474,13 +13474,13 @@
     </row>
     <row r="323" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A323" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B323" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C323" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D323" s="32"/>
       <c r="E323" s="2"/>
@@ -13508,16 +13508,16 @@
     </row>
     <row r="324" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A324" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B324" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="C324" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="C324" s="13" t="s">
-        <v>526</v>
-      </c>
       <c r="D324" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
@@ -13544,13 +13544,13 @@
     </row>
     <row r="325" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A325" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B325" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="C325" s="13" t="s">
         <v>527</v>
-      </c>
-      <c r="C325" s="13" t="s">
-        <v>528</v>
       </c>
       <c r="D325" s="32"/>
       <c r="E325" s="2"/>
@@ -13578,16 +13578,16 @@
     </row>
     <row r="326" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A326" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B326" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="C326" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="C326" s="13" t="s">
-        <v>530</v>
-      </c>
       <c r="D326" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
@@ -13614,13 +13614,13 @@
     </row>
     <row r="327" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A327" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B327" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C327" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D327" s="32"/>
       <c r="E327" s="2"/>
@@ -13648,10 +13648,10 @@
     </row>
     <row r="328" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A328" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B328" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C328" s="13" t="s">
         <v>62</v>
@@ -13682,13 +13682,13 @@
     </row>
     <row r="329" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A329" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B329" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="C329" s="13" t="s">
         <v>533</v>
-      </c>
-      <c r="C329" s="13" t="s">
-        <v>534</v>
       </c>
       <c r="D329" s="32"/>
       <c r="E329" s="2"/>
@@ -13716,13 +13716,13 @@
     </row>
     <row r="330" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A330" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B330" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C330" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D330" s="32"/>
       <c r="E330" s="2"/>
@@ -13750,13 +13750,13 @@
     </row>
     <row r="331" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A331" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B331" s="14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C331" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D331" s="32"/>
       <c r="E331" s="2"/>
@@ -13784,13 +13784,13 @@
     </row>
     <row r="332" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A332" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B332" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="C332" s="13" t="s">
         <v>537</v>
-      </c>
-      <c r="C332" s="13" t="s">
-        <v>538</v>
       </c>
       <c r="D332" s="32"/>
       <c r="E332" s="2"/>
@@ -13874,13 +13874,13 @@
     </row>
     <row r="335" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A335" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B335" s="35" t="s">
         <v>539</v>
       </c>
-      <c r="B335" s="35" t="s">
+      <c r="C335" s="13" t="s">
         <v>540</v>
-      </c>
-      <c r="C335" s="13" t="s">
-        <v>541</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -13908,13 +13908,13 @@
     </row>
     <row r="336" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A336" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B336" s="35" t="s">
+        <v>541</v>
+      </c>
+      <c r="C336" s="13" t="s">
         <v>542</v>
-      </c>
-      <c r="C336" s="13" t="s">
-        <v>543</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -13942,13 +13942,13 @@
     </row>
     <row r="337" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A337" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B337" s="35" t="s">
+        <v>543</v>
+      </c>
+      <c r="C337" s="13" t="s">
         <v>544</v>
-      </c>
-      <c r="C337" s="13" t="s">
-        <v>545</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -13976,13 +13976,13 @@
     </row>
     <row r="338" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A338" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B338" s="35" t="s">
+        <v>545</v>
+      </c>
+      <c r="C338" s="13" t="s">
         <v>546</v>
-      </c>
-      <c r="C338" s="13" t="s">
-        <v>547</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -14010,13 +14010,13 @@
     </row>
     <row r="339" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A339" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B339" s="35" t="s">
+        <v>547</v>
+      </c>
+      <c r="C339" s="13" t="s">
         <v>548</v>
-      </c>
-      <c r="C339" s="13" t="s">
-        <v>549</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -14044,13 +14044,13 @@
     </row>
     <row r="340" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A340" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B340" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="C340" s="13" t="s">
         <v>550</v>
-      </c>
-      <c r="C340" s="13" t="s">
-        <v>551</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -14134,10 +14134,10 @@
     </row>
     <row r="343" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A343" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B343" s="14" t="s">
         <v>552</v>
-      </c>
-      <c r="B343" s="14" t="s">
-        <v>553</v>
       </c>
       <c r="C343" s="13" t="s">
         <v>54</v>
@@ -14168,10 +14168,10 @@
     </row>
     <row r="344" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A344" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B344" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C344" s="13" t="s">
         <v>62</v>
@@ -14202,13 +14202,13 @@
     </row>
     <row r="345" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A345" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B345" s="14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C345" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -14236,13 +14236,13 @@
     </row>
     <row r="346" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A346" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B346" s="14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C346" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -14270,13 +14270,13 @@
     </row>
     <row r="347" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A347" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -14304,10 +14304,10 @@
     </row>
     <row r="348" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A348" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C348" s="13" t="s">
         <v>54</v>
@@ -14338,13 +14338,13 @@
     </row>
     <row r="349" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A349" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B349" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="C349" s="13" t="s">
         <v>559</v>
-      </c>
-      <c r="C349" s="13" t="s">
-        <v>560</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="32"/>
@@ -14372,13 +14372,13 @@
     </row>
     <row r="350" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A350" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C350" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" s="32"/>
@@ -14406,10 +14406,10 @@
     </row>
     <row r="351" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A351" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B351" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C351" s="13" t="s">
         <v>54</v>
@@ -14440,13 +14440,13 @@
     </row>
     <row r="352" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A352" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B352" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="C352" s="13" t="s">
         <v>563</v>
-      </c>
-      <c r="C352" s="13" t="s">
-        <v>564</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -14474,13 +14474,13 @@
     </row>
     <row r="353" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A353" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B353" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="C353" s="13" t="s">
         <v>565</v>
-      </c>
-      <c r="C353" s="13" t="s">
-        <v>566</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -14508,13 +14508,13 @@
     </row>
     <row r="354" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A354" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B354" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="C354" s="13" t="s">
         <v>567</v>
-      </c>
-      <c r="C354" s="13" t="s">
-        <v>568</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -14542,13 +14542,13 @@
     </row>
     <row r="355" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A355" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B355" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="C355" s="13" t="s">
         <v>569</v>
-      </c>
-      <c r="C355" s="13" t="s">
-        <v>570</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -14576,13 +14576,13 @@
     </row>
     <row r="356" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A356" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B356" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="C356" s="13" t="s">
         <v>571</v>
-      </c>
-      <c r="C356" s="13" t="s">
-        <v>572</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -14610,13 +14610,13 @@
     </row>
     <row r="357" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A357" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B357" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C357" s="13" t="s">
         <v>573</v>
-      </c>
-      <c r="C357" s="13" t="s">
-        <v>574</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -14644,13 +14644,13 @@
     </row>
     <row r="358" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A358" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B358" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="C358" s="13" t="s">
         <v>575</v>
-      </c>
-      <c r="C358" s="13" t="s">
-        <v>576</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -14678,13 +14678,13 @@
     </row>
     <row r="359" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A359" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B359" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="C359" s="13" t="s">
         <v>577</v>
-      </c>
-      <c r="C359" s="13" t="s">
-        <v>578</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -14712,13 +14712,13 @@
     </row>
     <row r="360" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A360" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B360" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="C360" s="13" t="s">
         <v>579</v>
-      </c>
-      <c r="C360" s="13" t="s">
-        <v>580</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -14746,13 +14746,13 @@
     </row>
     <row r="361" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A361" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B361" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="C361" s="13" t="s">
         <v>581</v>
-      </c>
-      <c r="C361" s="13" t="s">
-        <v>582</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -14780,13 +14780,13 @@
     </row>
     <row r="362" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A362" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B362" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="C362" s="13" t="s">
         <v>583</v>
-      </c>
-      <c r="C362" s="13" t="s">
-        <v>584</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -14814,13 +14814,13 @@
     </row>
     <row r="363" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A363" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C363" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -14848,13 +14848,13 @@
     </row>
     <row r="364" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A364" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B364" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C364" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -14882,13 +14882,13 @@
     </row>
     <row r="365" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A365" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B365" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="C365" s="13" t="s">
         <v>587</v>
-      </c>
-      <c r="C365" s="13" t="s">
-        <v>588</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -14916,13 +14916,13 @@
     </row>
     <row r="366" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A366" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B366" s="14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C366" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -14950,13 +14950,13 @@
     </row>
     <row r="367" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A367" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C367" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -14984,13 +14984,13 @@
     </row>
     <row r="368" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A368" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B368" s="14" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C368" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -15018,13 +15018,13 @@
     </row>
     <row r="369" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A369" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B369" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="C369" s="13" t="s">
         <v>592</v>
-      </c>
-      <c r="C369" s="13" t="s">
-        <v>593</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -15052,13 +15052,13 @@
     </row>
     <row r="370" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A370" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B370" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="C370" s="13" t="s">
         <v>594</v>
-      </c>
-      <c r="C370" s="13" t="s">
-        <v>595</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="32"/>
@@ -15086,13 +15086,13 @@
     </row>
     <row r="371" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A371" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B371" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="C371" s="13" t="s">
         <v>596</v>
-      </c>
-      <c r="C371" s="13" t="s">
-        <v>597</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" s="32"/>
@@ -15120,13 +15120,13 @@
     </row>
     <row r="372" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A372" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C372" s="13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" s="32"/>
@@ -15154,13 +15154,13 @@
     </row>
     <row r="373" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A373" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B373" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="C373" s="13" t="s">
         <v>599</v>
-      </c>
-      <c r="C373" s="13" t="s">
-        <v>600</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" s="32"/>
@@ -15188,13 +15188,13 @@
     </row>
     <row r="374" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A374" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B374" s="14" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" s="32"/>
@@ -15222,13 +15222,13 @@
     </row>
     <row r="375" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A375" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B375" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="C375" s="13" t="s">
         <v>602</v>
-      </c>
-      <c r="C375" s="13" t="s">
-        <v>603</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" s="32"/>
@@ -15256,13 +15256,13 @@
     </row>
     <row r="376" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A376" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B376" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="C376" s="13" t="s">
         <v>604</v>
-      </c>
-      <c r="C376" s="13" t="s">
-        <v>605</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" s="32"/>
@@ -15290,13 +15290,13 @@
     </row>
     <row r="377" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A377" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B377" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="C377" s="13" t="s">
         <v>606</v>
-      </c>
-      <c r="C377" s="13" t="s">
-        <v>607</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" s="32"/>
@@ -15324,13 +15324,13 @@
     </row>
     <row r="378" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A378" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B378" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C378" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" s="32"/>
@@ -15358,13 +15358,13 @@
     </row>
     <row r="379" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A379" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B379" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="C379" s="13" t="s">
         <v>609</v>
-      </c>
-      <c r="C379" s="13" t="s">
-        <v>610</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" s="32"/>
@@ -15392,13 +15392,13 @@
     </row>
     <row r="380" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A380" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B380" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C380" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="32"/>
@@ -15426,13 +15426,13 @@
     </row>
     <row r="381" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A381" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B381" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C381" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" s="32"/>
@@ -15460,13 +15460,13 @@
     </row>
     <row r="382" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A382" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B382" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="C382" s="13" t="s">
         <v>613</v>
-      </c>
-      <c r="C382" s="13" t="s">
-        <v>614</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" s="32"/>
@@ -15494,13 +15494,13 @@
     </row>
     <row r="383" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A383" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B383" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C383" s="13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="32"/>
@@ -15528,13 +15528,13 @@
     </row>
     <row r="384" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A384" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B384" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C384" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" s="32"/>
@@ -15562,13 +15562,13 @@
     </row>
     <row r="385" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A385" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B385" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C385" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" s="32"/>
@@ -15596,13 +15596,13 @@
     </row>
     <row r="386" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A386" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B386" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="C386" s="13" t="s">
         <v>618</v>
-      </c>
-      <c r="C386" s="13" t="s">
-        <v>619</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="32"/>
@@ -15630,13 +15630,13 @@
     </row>
     <row r="387" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A387" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B387" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C387" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" s="32"/>
@@ -15664,13 +15664,13 @@
     </row>
     <row r="388" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A388" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B388" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="C388" s="13" t="s">
         <v>621</v>
-      </c>
-      <c r="C388" s="13" t="s">
-        <v>622</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" s="32"/>
@@ -15698,10 +15698,10 @@
     </row>
     <row r="389" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A389" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B389" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C389" s="13" t="s">
         <v>62</v>
@@ -15732,13 +15732,13 @@
     </row>
     <row r="390" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A390" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B390" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C390" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" s="32"/>
@@ -15766,13 +15766,13 @@
     </row>
     <row r="391" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A391" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B391" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C391" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" s="32"/>
@@ -15800,13 +15800,13 @@
     </row>
     <row r="392" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A392" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B392" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="C392" s="13" t="s">
         <v>625</v>
-      </c>
-      <c r="C392" s="13" t="s">
-        <v>626</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" s="32"/>
@@ -15834,13 +15834,13 @@
     </row>
     <row r="393" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A393" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B393" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C393" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" s="32"/>
@@ -15868,13 +15868,13 @@
     </row>
     <row r="394" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A394" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B394" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C394" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" s="32"/>
@@ -15902,13 +15902,13 @@
     </row>
     <row r="395" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A395" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B395" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C395" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="32"/>
@@ -15936,13 +15936,13 @@
     </row>
     <row r="396" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A396" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B396" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="C396" s="13" t="s">
         <v>630</v>
-      </c>
-      <c r="C396" s="13" t="s">
-        <v>631</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" s="32"/>
@@ -16024,13 +16024,13 @@
     </row>
     <row r="399" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A399" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B399" s="35" t="s">
         <v>632</v>
       </c>
-      <c r="B399" s="35" t="s">
+      <c r="C399" s="13" t="s">
         <v>633</v>
-      </c>
-      <c r="C399" s="13" t="s">
-        <v>634</v>
       </c>
       <c r="F399" s="2"/>
       <c r="G399" s="2"/>
@@ -16056,13 +16056,13 @@
     </row>
     <row r="400" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A400" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B400" s="35" t="s">
+        <v>634</v>
+      </c>
+      <c r="C400" s="13" t="s">
         <v>635</v>
-      </c>
-      <c r="C400" s="13" t="s">
-        <v>636</v>
       </c>
       <c r="F400" s="2"/>
       <c r="G400" s="2"/>
@@ -16088,13 +16088,13 @@
     </row>
     <row r="401" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A401" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B401" s="35" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C401" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F401" s="2"/>
       <c r="G401" s="2"/>
@@ -16120,10 +16120,10 @@
     </row>
     <row r="402" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A402" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B402" s="35" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C402" s="13" t="s">
         <v>62</v>
@@ -16152,13 +16152,13 @@
     </row>
     <row r="403" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A403" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B403" s="35" t="s">
+        <v>638</v>
+      </c>
+      <c r="C403" s="13" t="s">
         <v>639</v>
-      </c>
-      <c r="C403" s="13" t="s">
-        <v>640</v>
       </c>
       <c r="F403" s="2"/>
       <c r="G403" s="2"/>
@@ -16184,10 +16184,10 @@
     </row>
     <row r="404" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A404" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B404" s="35" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C404" s="13" t="s">
         <v>62</v>
@@ -16216,13 +16216,13 @@
     </row>
     <row r="405" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A405" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B405" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C405" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F405" s="2"/>
       <c r="G405" s="2"/>
@@ -16248,10 +16248,10 @@
     </row>
     <row r="406" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A406" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B406" s="35" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C406" s="13" t="s">
         <v>54</v>
@@ -16280,10 +16280,10 @@
     </row>
     <row r="407" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A407" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B407" s="35" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C407" s="13" t="s">
         <v>62</v>
@@ -16312,13 +16312,13 @@
     </row>
     <row r="408" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A408" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B408" s="35" t="s">
+        <v>644</v>
+      </c>
+      <c r="C408" s="13" t="s">
         <v>645</v>
-      </c>
-      <c r="C408" s="13" t="s">
-        <v>646</v>
       </c>
       <c r="F408" s="2"/>
       <c r="G408" s="2"/>
@@ -16396,10 +16396,10 @@
     </row>
     <row r="411" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A411" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="B411" s="14" t="s">
         <v>647</v>
-      </c>
-      <c r="B411" s="14" t="s">
-        <v>648</v>
       </c>
       <c r="C411" s="13"/>
       <c r="F411" s="2"/>
@@ -16426,10 +16426,10 @@
     </row>
     <row r="412" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A412" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C412" s="13" t="s">
         <v>52</v>
@@ -16458,13 +16458,13 @@
     </row>
     <row r="413" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A413" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B413" s="34" t="s">
+        <v>649</v>
+      </c>
+      <c r="C413" s="13" t="s">
         <v>650</v>
-      </c>
-      <c r="C413" s="13" t="s">
-        <v>651</v>
       </c>
       <c r="F413" s="2"/>
       <c r="G413" s="2"/>
@@ -16490,13 +16490,13 @@
     </row>
     <row r="414" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A414" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B414" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="C414" s="13" t="s">
         <v>652</v>
-      </c>
-      <c r="C414" s="13" t="s">
-        <v>653</v>
       </c>
       <c r="F414" s="2"/>
       <c r="G414" s="2"/>
@@ -16522,13 +16522,13 @@
     </row>
     <row r="415" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A415" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C415" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -16556,13 +16556,13 @@
     </row>
     <row r="416" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A416" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B416" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="C416" s="13" t="s">
         <v>655</v>
-      </c>
-      <c r="C416" s="13" t="s">
-        <v>656</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -30674,21 +30674,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{1DE16873-65CE-45B0-B619-6F9A07F9DB53}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A483662C-AE77-4735-A17B-2E0CC5776BF0}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{96E9E5D9-3882-4055-9B4D-AA7AA517FAC7}"/>
+      <autoFilter ref="A293:C332" xr:uid="{1E38CB54-FC9F-45DE-821C-5720374BD94F}"/>
+    </customSheetView>
+    <customSheetView guid="{717BDB46-8C7F-42BE-BB16-D4B8498FC26C}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{2199D442-E4E8-4398-9577-6D3D690AC8D7}"/>
     </customSheetView>
     <customSheetView guid="{19D4D951-432D-48E2-9EC0-EBCA6AC6CE5D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{B679A461-7934-4450-8665-17F4139FCDFD}"/>
+      <autoFilter ref="A11:D37" xr:uid="{03673808-C02B-48E7-BBA3-34CC2553CC07}"/>
     </customSheetView>
-    <customSheetView guid="{717BDB46-8C7F-42BE-BB16-D4B8498FC26C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{1DE16873-65CE-45B0-B619-6F9A07F9DB53}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{31AEF254-A71B-4AA0-B52A-AE3CF82C5A62}"/>
-    </customSheetView>
-    <customSheetView guid="{A483662C-AE77-4735-A17B-2E0CC5776BF0}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{26411DF2-14FB-416A-9C0E-10ACB96B23EA}"/>
+      <autoFilter ref="A11:C37" xr:uid="{6B7FE23F-13C1-4CE9-BEE3-2274730E8BF8}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
@@ -30732,7 +30732,7 @@
     <hyperlink ref="B44" r:id="rId33" display="Longest Common Prefix" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="B45" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="B46" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B47" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B47" r:id="rId36" display="Longest Substring without Repeating Characters" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="B48" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="B49" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="B50" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
@@ -31149,7 +31149,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C8" s="4"/>
     </row>
@@ -31163,7 +31163,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>13</v>
@@ -31174,82 +31174,82 @@
         <v>63</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -31262,42 +31262,42 @@
     </row>
     <row r="28" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A30" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A31" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -31310,50 +31310,50 @@
     </row>
     <row r="35" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -31362,18 +31362,18 @@
     </row>
     <row r="45" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A45" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A46" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -31386,10 +31386,10 @@
     </row>
     <row r="49" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -31402,42 +31402,42 @@
     </row>
     <row r="52" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A52" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A53" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A54" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A55" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A56" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -31450,26 +31450,26 @@
     </row>
     <row r="59" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A59" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A61" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -31482,66 +31482,66 @@
     </row>
     <row r="64" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A64" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A65" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A66" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A69" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A70" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>

--- a/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabeer G\Documents\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BC1130-1DFD-477F-86C4-9EC3F4AFB94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045D3EE6-B656-46FE-9D0C-29381475B1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{A483662C-AE77-4735-A17B-2E0CC5776BF0}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{19D4D951-432D-48E2-9EC0-EBCA6AC6CE5D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{1DE16873-65CE-45B0-B619-6F9A07F9DB53}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{717BDB46-8C7F-42BE-BB16-D4B8498FC26C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{1DE16873-65CE-45B0-B619-6F9A07F9DB53}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{19D4D951-432D-48E2-9EC0-EBCA6AC6CE5D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{A483662C-AE77-4735-A17B-2E0CC5776BF0}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -2794,7 +2794,7 @@
   <dimension ref="A1:Z919"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30674,21 +30674,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A483662C-AE77-4735-A17B-2E0CC5776BF0}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{1DE16873-65CE-45B0-B619-6F9A07F9DB53}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{1E38CB54-FC9F-45DE-821C-5720374BD94F}"/>
+      <autoFilter ref="A11:C37" xr:uid="{787B67AE-0AC9-423E-9DF8-60B243B9EC7A}"/>
+    </customSheetView>
+    <customSheetView guid="{19D4D951-432D-48E2-9EC0-EBCA6AC6CE5D}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{8759E546-5AE6-4CC4-B353-8356DFB8E581}"/>
     </customSheetView>
     <customSheetView guid="{717BDB46-8C7F-42BE-BB16-D4B8498FC26C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{2199D442-E4E8-4398-9577-6D3D690AC8D7}"/>
+      <autoFilter ref="A11:D37" xr:uid="{7F526102-9C56-4874-A8AB-2D557CA5A271}"/>
     </customSheetView>
-    <customSheetView guid="{19D4D951-432D-48E2-9EC0-EBCA6AC6CE5D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A483662C-AE77-4735-A17B-2E0CC5776BF0}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{03673808-C02B-48E7-BBA3-34CC2553CC07}"/>
-    </customSheetView>
-    <customSheetView guid="{1DE16873-65CE-45B0-B619-6F9A07F9DB53}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{6B7FE23F-13C1-4CE9-BEE3-2274730E8BF8}"/>
+      <autoFilter ref="A293:C332" xr:uid="{52B23A5B-5B92-4C36-B249-CBA0A79AB0D5}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
